--- a/Design document/dang_vien.xlsx
+++ b/Design document/dang_vien.xlsx
@@ -37,7 +37,7 @@
     <t xml:space="preserve">class</t>
   </si>
   <si>
-    <t xml:space="preserve">danh_vien</t>
+    <t xml:space="preserve">dang_vien</t>
   </si>
   <si>
     <t xml:space="preserve">Lều Văn Duẩn</t>
@@ -350,15 +350,15 @@
   <dimension ref="A1:F29"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G8" activeCellId="0" sqref="G8"/>
+      <selection pane="topLeft" activeCell="F1" activeCellId="0" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="2" min="1" style="0" width="8.36734693877551"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="12.5561224489796"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="13.5"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="2" min="1" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="12.4183673469388"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="13.2295918367347"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
